--- a/5조_화면흐름도.xlsx
+++ b/5조_화면흐름도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2D59E-4BCB-4A31-B466-A5DD71014891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A692A7-FE49-4D46-8A41-C50942D09834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,31 +445,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,23 +493,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>233795</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>112260</xdr:rowOff>
+      <xdr:rowOff>18646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>22208</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>281845</xdr:rowOff>
+      <xdr:rowOff>300403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="그림 107">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF554FC-4060-BD9E-DA2A-51C1F8F9665D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E60A8AA-41E0-86DF-7D45-3C6A3A1E4100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="639536" y="806224"/>
-          <a:ext cx="8953500" cy="6047871"/>
+          <a:off x="475583" y="729358"/>
+          <a:ext cx="8734587" cy="6084680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,23 +543,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>168087</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>223138</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>21979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>71580</xdr:colOff>
+      <xdr:colOff>227299</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>291353</xdr:rowOff>
+      <xdr:rowOff>293077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="그림 109">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AA94C6-9108-98F0-B12B-90DCDA7945DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C50F2BF-2835-700B-EFCE-2FE31F666D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -587,8 +581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403411" y="7642412"/>
-          <a:ext cx="8610463" cy="6107206"/>
+          <a:off x="706715" y="7568710"/>
+          <a:ext cx="8708546" cy="6074021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AU36" sqref="AU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -2444,7 +2438,7 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="42"/>
@@ -2617,733 +2611,87 @@
     </row>
     <row r="6" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
+      <c r="AK6" s="15"/>
       <c r="AO6" s="16"/>
     </row>
     <row r="7" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
+      <c r="AK7" s="15"/>
       <c r="AO7" s="16"/>
     </row>
     <row r="8" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
+      <c r="AK8" s="15"/>
       <c r="AO8" s="16"/>
     </row>
     <row r="9" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
+      <c r="AK9" s="15"/>
       <c r="AO9" s="16"/>
     </row>
     <row r="10" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
+      <c r="AK10" s="15"/>
       <c r="AO10" s="16"/>
     </row>
     <row r="11" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
+      <c r="AK11" s="15"/>
       <c r="AO11" s="16"/>
     </row>
     <row r="12" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
+      <c r="AK12" s="15"/>
       <c r="AO12" s="16"/>
     </row>
     <row r="13" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
+      <c r="AK13" s="15"/>
       <c r="AO13" s="16"/>
     </row>
     <row r="14" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
+      <c r="AK14" s="15"/>
       <c r="AO14" s="16"/>
     </row>
     <row r="15" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
+      <c r="AK15" s="15"/>
       <c r="AO15" s="16"/>
     </row>
     <row r="16" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
+      <c r="AK16" s="15"/>
       <c r="AO16" s="16"/>
     </row>
     <row r="17" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
+      <c r="AK17" s="15"/>
       <c r="AO17" s="16"/>
     </row>
     <row r="18" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
+      <c r="AK18" s="15"/>
       <c r="AO18" s="16"/>
     </row>
     <row r="19" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
+      <c r="AK19" s="15"/>
       <c r="AO19" s="16"/>
     </row>
     <row r="20" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
+      <c r="AK20" s="15"/>
       <c r="AO20" s="16"/>
     </row>
     <row r="21" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
+      <c r="AK21" s="15"/>
       <c r="AO21" s="16"/>
     </row>
     <row r="22" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
+      <c r="AK22" s="15"/>
       <c r="AO22" s="16"/>
     </row>
     <row r="23" spans="1:47" s="13" customFormat="1" ht="25.5" customHeight="1">
@@ -3451,7 +2799,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="47" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="42"/>
@@ -3753,6 +3101,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="K24:AD24"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AI24:AO24"/>
+    <mergeCell ref="K25:AD26"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="AI25:AO25"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AI26:AO26"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
@@ -3762,15 +3119,6 @@
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="K24:AD24"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="AI24:AO24"/>
-    <mergeCell ref="K25:AD26"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="AI25:AO25"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="AI26:AO26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/5조_화면흐름도.xlsx
+++ b/5조_화면흐름도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A692A7-FE49-4D46-8A41-C50942D09834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C440F968-8A2C-4AF2-AA36-7920D3B45B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="-120" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면흐름도" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MEMBER ONLY SYSTEM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>작성자</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -49,12 +45,58 @@
     <t>도서 관리 시스템</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +153,6 @@
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -163,6 +199,23 @@
     <font>
       <sz val="12"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -328,16 +381,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -352,7 +405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -373,27 +426,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,25 +498,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,23 +546,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>233795</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>18646</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>22208</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>300403</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>252057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E60A8AA-41E0-86DF-7D45-3C6A3A1E4100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EB0E9B-5378-EF66-0AF3-CE48F9D733DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -531,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="475583" y="729358"/>
-          <a:ext cx="8734587" cy="6084680"/>
+          <a:off x="571500" y="1104900"/>
+          <a:ext cx="8286750" cy="5738457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,23 +596,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>223138</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>21979</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>227299</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>293077</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>70758</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>301251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
+        <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C50F2BF-2835-700B-EFCE-2FE31F666D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781FDD02-100D-EB5E-5764-772543D02A93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="706715" y="7568710"/>
-          <a:ext cx="8708546" cy="6074021"/>
+          <a:off x="1850572" y="7932964"/>
+          <a:ext cx="7772400" cy="5512787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -917,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AU36" sqref="AU36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC36" sqref="BC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -2438,30 +2491,30 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="41" t="s">
-        <v>6</v>
+      <c r="K2" s="46" t="s">
+        <v>5</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
       <c r="AE2" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
@@ -2485,28 +2538,28 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="46"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45"/>
       <c r="AE3" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="37"/>
       <c r="AG3" s="37"/>
@@ -2800,29 +2853,29 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
       <c r="K25" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="36" t="s">
         <v>3</v>
-      </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="36" t="s">
-        <v>4</v>
       </c>
       <c r="AF25" s="37"/>
       <c r="AG25" s="37"/>
@@ -2846,28 +2899,28 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="46"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="45"/>
       <c r="AE26" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26" s="37"/>
       <c r="AG26" s="37"/>
@@ -3101,6 +3154,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="K2:AD3"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="A24:J26"/>
     <mergeCell ref="K24:AD24"/>
     <mergeCell ref="AE24:AH24"/>
@@ -3110,15 +3172,6 @@
     <mergeCell ref="AI25:AO25"/>
     <mergeCell ref="AE26:AH26"/>
     <mergeCell ref="AI26:AO26"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="K2:AD3"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/5조_화면흐름도.xlsx
+++ b/5조_화면흐름도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C440F968-8A2C-4AF2-AA36-7920D3B45B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2727D5F0-AFB7-4DBF-9961-BEF8A542B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="-120" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="615" windowWidth="18795" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면흐름도" sheetId="1" r:id="rId1"/>
@@ -498,6 +498,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,9 +517,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,23 +546,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>299358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>234042</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>252057</xdr:rowOff>
+      <xdr:rowOff>260430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EB0E9B-5378-EF66-0AF3-CE48F9D733DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7763474E-48EE-68FA-8EAC-30620C728B00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,8 +584,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="1104900"/>
-          <a:ext cx="8286750" cy="5738457"/>
+          <a:off x="1279071" y="993322"/>
+          <a:ext cx="7772400" cy="5512787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,22 +597,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>70758</xdr:colOff>
+      <xdr:colOff>29936</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>301251</xdr:rowOff>
+      <xdr:rowOff>165180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781FDD02-100D-EB5E-5764-772543D02A93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C82074-1FF7-0BD0-D316-11D95C471AD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1850572" y="7932964"/>
+          <a:off x="1809750" y="7796893"/>
           <a:ext cx="7772400" cy="5512787"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC36" sqref="BC36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL32" sqref="BL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -2491,28 +2491,28 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
       <c r="AE2" s="36" t="s">
         <v>3</v>
       </c>
@@ -2538,26 +2538,26 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="45"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="46"/>
       <c r="AE3" s="36" t="s">
         <v>4</v>
       </c>
@@ -2852,28 +2852,28 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="43"/>
       <c r="AE25" s="36" t="s">
         <v>3</v>
       </c>
@@ -2899,26 +2899,26 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="46"/>
       <c r="AE26" s="36" t="s">
         <v>4</v>
       </c>
